--- a/data/trans_dic/P79$alquiler_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P79$alquiler_2023-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.01994302738803808</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.006523089713824528</v>
+        <v>0.006523089713824527</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01365860958399773</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008675716485426288</v>
+        <v>0.00895871013709911</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00147767688598239</v>
+        <v>0.001470256155891322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007065704255606104</v>
+        <v>0.007234829322411208</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03967207429503933</v>
+        <v>0.04096669204413424</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01549439294761273</v>
+        <v>0.01618963024958257</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02386973887001187</v>
+        <v>0.02462740943766411</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.009924665717833384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01237335172070761</v>
+        <v>0.01237335172070762</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00500016581252163</v>
+        <v>0.004878348038840324</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003470295104068094</v>
+        <v>0.003447911762958641</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006743877121892259</v>
+        <v>0.00660968419047091</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02962810616759826</v>
+        <v>0.02746117912005693</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02284309689091378</v>
+        <v>0.02346238624044674</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02201670297623164</v>
+        <v>0.02163779634077967</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007041019558681505</v>
+        <v>0.006108122522649935</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004028290466402145</v>
+        <v>0.004163633462681255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008315053200422969</v>
+        <v>0.008334347749955144</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03203433386422103</v>
+        <v>0.03132141073312664</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03384778736210541</v>
+        <v>0.03418609052417996</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02869986385204827</v>
+        <v>0.02736495127943839</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.022494221547615</v>
+        <v>0.02249422154761499</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.01967881947124615</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01412373946735254</v>
+        <v>0.01372146528951474</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01236503762447613</v>
+        <v>0.01264737204876075</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01483993143722853</v>
+        <v>0.01521726616506298</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03546977390203247</v>
+        <v>0.03424275807736446</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03015051824260859</v>
+        <v>0.03021840530263169</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02866669783516069</v>
+        <v>0.02856959758027852</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01162987868326062</v>
+        <v>0.01181704989471211</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02663493578774009</v>
+        <v>0.0268204125370466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02282638696215104</v>
+        <v>0.02301562673220345</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03845592435404213</v>
+        <v>0.0364815359014994</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05723592464321847</v>
+        <v>0.05688874407028251</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04288736918403297</v>
+        <v>0.04423383329632141</v>
       </c>
     </row>
     <row r="19">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01854917063311445</v>
+        <v>0.01807691328503744</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01487459387528037</v>
+        <v>0.01510245008909934</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04544455506440813</v>
+        <v>0.04991739490307952</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05108930162392299</v>
+        <v>0.05003960801492794</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0395027733602641</v>
+        <v>0.04083752650817177</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.0230952107099293</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.02114445367477122</v>
+        <v>0.02114445367477123</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0144648107353837</v>
+        <v>0.01418262198676754</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01847717918203245</v>
+        <v>0.0178676126831408</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01790232902383441</v>
+        <v>0.01772314058500144</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02550135776077305</v>
+        <v>0.02464411264621228</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02959588286288605</v>
+        <v>0.02832442659305753</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02514814409271042</v>
+        <v>0.02507847595499405</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4728</v>
+        <v>4882</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7241</v>
+        <v>7415</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21618</v>
+        <v>22324</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7436</v>
+        <v>7770</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24463</v>
+        <v>25239</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2383</v>
+        <v>2325</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6036</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14119</v>
+        <v>13087</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9559</v>
+        <v>9818</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19705</v>
+        <v>19366</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3241</v>
+        <v>2812</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>747</v>
+        <v>772</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5369</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14747</v>
+        <v>14418</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6274</v>
+        <v>6337</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18532</v>
+        <v>17670</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15671</v>
+        <v>15225</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10231</v>
+        <v>10465</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28745</v>
+        <v>29476</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39356</v>
+        <v>37995</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24948</v>
+        <v>25004</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>55527</v>
+        <v>55339</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6203</v>
+        <v>6302</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>21233</v>
+        <v>21381</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>30371</v>
+        <v>30623</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20510</v>
+        <v>19457</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>45627</v>
+        <v>45350</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>57062</v>
+        <v>58854</v>
       </c>
     </row>
     <row r="24">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>14784</v>
+        <v>14408</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>15019</v>
+        <v>15249</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9666</v>
+        <v>10617</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>40719</v>
+        <v>39883</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>39887</v>
+        <v>41234</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>48275</v>
+        <v>47333</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>64770</v>
+        <v>62633</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>122502</v>
+        <v>121276</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>85108</v>
+        <v>82247</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>103746</v>
+        <v>99289</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>172084</v>
+        <v>171607</v>
       </c>
     </row>
     <row r="32">
